--- a/excel_output/daily_summary.xlsx
+++ b/excel_output/daily_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>2020-06-09</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,6 +623,14 @@
         <v>2517</v>
       </c>
     </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>2639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_output/daily_summary.xlsx
+++ b/excel_output/daily_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>date</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,6 +634,38 @@
         <v>2639</v>
       </c>
     </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>2642</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
